--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-10_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-10_end.xlsx
@@ -1860,7 +1860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  "No regrets," I always say...
+    <t xml:space="preserve">[name="Kal'tsit"]  'No regrets,' I always say...
 </t>
   </si>
   <si>
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Crownslayer"]  "Swallow the bitterness of the dead"...
+    <t xml:space="preserve">[name="Crownslayer"]  'Swallow the bitterness of the dead'...
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Crownslayer"]  "Director Kal'tsit"?!
+    <t xml:space="preserve">[name="Crownslayer"]  'Director Kal'tsit'?!
 </t>
   </si>
   <si>
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Hah. Your father read you "Truth and Justice," didn't he?
+    <t xml:space="preserve">[name="Kal'tsit"]  Hah. Your father read you 'Truth and Justice,' didn't he?
 </t>
   </si>
   <si>
@@ -2288,7 +2288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  "Crownslayer," your hate as well as that of your movement has been used and abused, toyed with.
+    <t xml:space="preserve">[name="Kal'tsit"]  'Crownslayer,' your hate as well as that of your movement has been used and abused, toyed with.
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  She has now become a virus. A unique strain spreading "unease" among the Infected fanatics of Chernobog.
+    <t xml:space="preserve">[name="Kal'tsit"]  She has now become a virus. A unique strain spreading 'unease' among the Infected fanatics of Chernobog.
 </t>
   </si>
   <si>
